--- a/Poselenci/SvoistvaCard.xlsx
+++ b/Poselenci/SvoistvaCard.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$L$54</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="242">
   <si>
     <t>Название карты</t>
   </si>
@@ -721,6 +724,27 @@
   </si>
   <si>
     <t>цвет</t>
+  </si>
+  <si>
+    <t>VarImpDremuchiyLes</t>
+  </si>
+  <si>
+    <t>Дремучий лес</t>
+  </si>
+  <si>
+    <t>VarImpKapishe</t>
+  </si>
+  <si>
+    <t>Капище</t>
+  </si>
+  <si>
+    <t>Д+Д+П</t>
+  </si>
+  <si>
+    <t>(-Р=ПО</t>
+  </si>
+  <si>
+    <t>имперсикие Варвары</t>
   </si>
 </sst>
 </file>
@@ -802,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -811,6 +835,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1112,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N54"/>
+  <dimension ref="A2:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1432,7 @@
       <c r="B9" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1">
@@ -1436,40 +1462,40 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1512,40 +1538,40 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="9">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9">
+        <v>1</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1586,42 +1612,42 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="9">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1664,40 +1690,40 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9">
+        <v>1</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>221</v>
       </c>
     </row>
@@ -1735,229 +1761,229 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
+      <c r="N18" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+      <c r="N19" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9">
+        <v>1</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9">
+        <v>1</v>
+      </c>
+      <c r="N21" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="9">
         <v>3</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9">
         <v>2</v>
       </c>
-      <c r="L22" s="1">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="L22" s="9">
+        <v>1</v>
+      </c>
+      <c r="N22" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9">
+        <v>1</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>226</v>
       </c>
     </row>
@@ -1982,475 +2008,475 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="K25" s="9"/>
+      <c r="L25" s="9">
+        <v>1</v>
+      </c>
+      <c r="N25" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9">
+        <v>1</v>
+      </c>
+      <c r="N26" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="9">
         <v>3</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9">
         <v>2</v>
       </c>
-      <c r="L28" s="1">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="L28" s="9">
+        <v>1</v>
+      </c>
+      <c r="N28" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9">
+        <v>1</v>
+      </c>
+      <c r="N29" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="K30" s="9"/>
+      <c r="L30" s="9">
+        <v>1</v>
+      </c>
+      <c r="N30" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1">
+      <c r="J31" s="9"/>
+      <c r="K31" s="9">
         <v>2</v>
       </c>
-      <c r="L31" s="1">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="L31" s="9">
+        <v>1</v>
+      </c>
+      <c r="N31" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="K36" s="9"/>
+      <c r="L36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1">
+      <c r="J37" s="5"/>
+      <c r="K37" s="5">
         <v>2</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3046,7 +3072,77 @@
         <v>1</v>
       </c>
     </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1">
+        <v>2</v>
+      </c>
+      <c r="L60" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:L54"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Poselenci/SvoistvaCard.xlsx
+++ b/Poselenci/SvoistvaCard.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$L$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$N$60</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="303">
   <si>
     <t>Название карты</t>
   </si>
@@ -396,9 +396,6 @@
     <t>З+К</t>
   </si>
   <si>
-    <t>ПО+З за Желт П</t>
-  </si>
-  <si>
     <t>Постоялый двор</t>
   </si>
   <si>
@@ -450,9 +447,6 @@
     <t>Подрячик</t>
   </si>
   <si>
-    <t>ПО+З за Сер П</t>
-  </si>
-  <si>
     <t>Столярная мастерская</t>
   </si>
   <si>
@@ -465,9 +459,6 @@
     <t>Мельница</t>
   </si>
   <si>
-    <t>ПО+З за Крас П</t>
-  </si>
-  <si>
     <t>Дровяной склад</t>
   </si>
   <si>
@@ -501,9 +492,6 @@
     <t>Развалины</t>
   </si>
   <si>
-    <t>К за Сер П &lt;=3</t>
-  </si>
-  <si>
     <t>Деревня</t>
   </si>
   <si>
@@ -552,9 +540,6 @@
     <t>Городские пашни</t>
   </si>
   <si>
-    <t>Е за Красн П &lt;=3</t>
-  </si>
-  <si>
     <t>Памятник</t>
   </si>
   <si>
@@ -564,9 +549,6 @@
     <t>Гильдия торговцев</t>
   </si>
   <si>
-    <t>3 за желт П &lt;=3</t>
-  </si>
-  <si>
     <t>Золотой прииск</t>
   </si>
   <si>
@@ -579,12 +561,6 @@
     <t>Лесо заготовка</t>
   </si>
   <si>
-    <t>Д за кор П &lt;=3</t>
-  </si>
-  <si>
-    <t>Р за роз П &lt;=3</t>
-  </si>
-  <si>
     <t>Мастерская ювелира</t>
   </si>
   <si>
@@ -745,6 +721,213 @@
   </si>
   <si>
     <t>имперсикие Варвары</t>
+  </si>
+  <si>
+    <t>3/j П &lt;=3</t>
+  </si>
+  <si>
+    <t>Е/red П &lt;=3</t>
+  </si>
+  <si>
+    <t>ПО+З/j П</t>
+  </si>
+  <si>
+    <t>Д/k П &lt;=3</t>
+  </si>
+  <si>
+    <t>Р/r П &lt;=3</t>
+  </si>
+  <si>
+    <t>ПО+З/red П</t>
+  </si>
+  <si>
+    <t>ПО+З /s П</t>
+  </si>
+  <si>
+    <t>К /s П &lt;=3</t>
+  </si>
+  <si>
+    <t>VarImpGranica</t>
+  </si>
+  <si>
+    <t>Граница</t>
+  </si>
+  <si>
+    <t>Д+К+П</t>
+  </si>
+  <si>
+    <t>Остр blak П = З+ПО</t>
+  </si>
+  <si>
+    <t>VarImpDelegacia</t>
+  </si>
+  <si>
+    <t>Делегация</t>
+  </si>
+  <si>
+    <t>(-Р=2КР однусбросить</t>
+  </si>
+  <si>
+    <t>4   - производство</t>
+  </si>
+  <si>
+    <t>5  - свойство</t>
+  </si>
+  <si>
+    <t>6  - действи</t>
+  </si>
+  <si>
+    <t>VarImpIdol</t>
+  </si>
+  <si>
+    <t>blak</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>К+К+К+П</t>
+  </si>
+  <si>
+    <t>ПО+ПО+ПО+ПО</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>VarImpRazboiniki</t>
+  </si>
+  <si>
+    <t>Идол</t>
+  </si>
+  <si>
+    <t>Разбойники</t>
+  </si>
+  <si>
+    <t>Д+П</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>(-Р=ПО+КР</t>
+  </si>
+  <si>
+    <t>VarImpNabeg</t>
+  </si>
+  <si>
+    <t>Разруш = ПО</t>
+  </si>
+  <si>
+    <t>Набег</t>
+  </si>
+  <si>
+    <t>VarImpDiversant</t>
+  </si>
+  <si>
+    <t>(-Р=Д=К=Е</t>
+  </si>
+  <si>
+    <t>VarImpDozorBashna</t>
+  </si>
+  <si>
+    <t>Диверсанты</t>
+  </si>
+  <si>
+    <t>Дозорная башня</t>
+  </si>
+  <si>
+    <t>Р+О</t>
+  </si>
+  <si>
+    <t>VarImpTemnKapishe</t>
+  </si>
+  <si>
+    <t>Д+К+К+П</t>
+  </si>
+  <si>
+    <t>(-О=-2О=враг П -Т=2ПО</t>
+  </si>
+  <si>
+    <t>Темное капище</t>
+  </si>
+  <si>
+    <t>Банда</t>
+  </si>
+  <si>
+    <t>Отребье</t>
+  </si>
+  <si>
+    <t>Селение</t>
+  </si>
+  <si>
+    <t>крепость</t>
+  </si>
+  <si>
+    <t>Экспедиция</t>
+  </si>
+  <si>
+    <t>Карьер</t>
+  </si>
+  <si>
+    <t>Барахолка</t>
+  </si>
+  <si>
+    <t>Бойцовский клуб</t>
+  </si>
+  <si>
+    <t>VarImpBanda</t>
+  </si>
+  <si>
+    <t>(-Р=П враг + бонус разр</t>
+  </si>
+  <si>
+    <t>VarImpOtrebe</t>
+  </si>
+  <si>
+    <t>(-Р-Р=Разр П свою</t>
+  </si>
+  <si>
+    <t>VarImpSelenie</t>
+  </si>
+  <si>
+    <t>VarImpKrepost</t>
+  </si>
+  <si>
+    <t>ПО за черн П имп</t>
+  </si>
+  <si>
+    <t>VarImpEkspedicia</t>
+  </si>
+  <si>
+    <t>(-О=З+ПО+ПО</t>
+  </si>
+  <si>
+    <t>VarImpKarer</t>
+  </si>
+  <si>
+    <t>К+П</t>
+  </si>
+  <si>
+    <t>О+К</t>
+  </si>
+  <si>
+    <t>VarImpBaraholka</t>
+  </si>
+  <si>
+    <t>(-Люб 2 рес = ПО+ПО</t>
+  </si>
+  <si>
+    <t>VarImpBoycovKlub</t>
+  </si>
+  <si>
+    <t>(-Р-Р=О+О</t>
   </si>
 </sst>
 </file>
@@ -760,7 +943,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -770,12 +953,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,15 +1003,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1138,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N60"/>
+  <dimension ref="A2:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1327,7 @@
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1161,7 +1336,7 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1202,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1214,7 +1389,7 @@
         <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>119</v>
@@ -1223,7 +1398,7 @@
         <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>106</v>
@@ -1241,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -1265,7 +1440,7 @@
         <v>100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1">
@@ -1280,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1301,7 +1476,7 @@
         <v>73</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1338,7 +1513,7 @@
         <v>73</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1">
@@ -1356,7 +1531,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -1371,13 +1546,13 @@
         <v>124</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1388,40 +1563,40 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="I8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1430,9 +1605,9 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1">
@@ -1442,7 +1617,7 @@
         <v>102</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>78</v>
@@ -1451,7 +1626,7 @@
         <v>89</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1462,40 +1637,40 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9">
-        <v>1</v>
-      </c>
-      <c r="N10" s="8" t="s">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1504,7 +1679,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -1513,22 +1688,22 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>89</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
@@ -1538,40 +1713,40 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+    <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9">
-        <v>1</v>
-      </c>
-      <c r="N12" s="8" t="s">
+      <c r="I12" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1601,7 +1776,7 @@
         <v>115</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1612,42 +1787,42 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+    <row r="14" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>3</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9">
-        <v>1</v>
-      </c>
-      <c r="N14" s="8" t="s">
+      <c r="K14" s="7"/>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1687,44 +1862,44 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9">
-        <v>1</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>221</v>
+      <c r="I16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1732,7 +1907,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -1741,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>97</v>
@@ -1753,7 +1928,7 @@
         <v>73</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1761,230 +1936,230 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9">
-        <v>1</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="I18" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9">
-        <v>1</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="I19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9">
-        <v>1</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="K20" s="7"/>
+      <c r="L20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9">
-        <v>1</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="I21" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>3</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9">
-        <v>2</v>
-      </c>
-      <c r="L22" s="9">
-        <v>1</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7">
+        <v>2</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9">
-        <v>1</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>226</v>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2005,1087 +2180,1144 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="N24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7">
+        <v>1</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7">
+        <v>2</v>
+      </c>
+      <c r="L28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7">
+        <v>1</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7">
+        <v>1</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7">
+        <v>2</v>
+      </c>
+      <c r="L31" s="7">
+        <v>1</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>34</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7">
+        <v>2</v>
+      </c>
+      <c r="L37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>36</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>38</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>39</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="7">
+        <v>6</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>40</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>41</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>44</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="7">
+        <v>4</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>46</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>48</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="7">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>50</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="7">
+        <v>3</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7">
+        <v>2</v>
+      </c>
+      <c r="L52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>51</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="7">
+        <v>2</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7">
+        <v>2</v>
+      </c>
+      <c r="L53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>52</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="N58" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>23</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9">
-        <v>1</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>24</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9">
-        <v>1</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>25</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="D59" s="1">
         <v>3</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>26</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="9">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9">
-        <v>2</v>
-      </c>
-      <c r="L28" s="9">
-        <v>1</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>27</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="9">
-        <v>1</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9">
-        <v>1</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>28</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="9">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9">
-        <v>1</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>29</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="9">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9">
-        <v>2</v>
-      </c>
-      <c r="L31" s="9">
-        <v>1</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>30</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="9">
-        <v>1</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>31</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="9">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>32</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="9">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>33</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="9">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>34</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="9">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>35</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="5">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5">
-        <v>2</v>
-      </c>
-      <c r="L37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="1">
-        <v>6</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="1">
-        <v>4</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="1">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1">
-        <v>2</v>
-      </c>
-      <c r="L52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1">
-        <v>2</v>
-      </c>
-      <c r="L53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>71</v>
@@ -3094,7 +3326,7 @@
         <v>100</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>89</v>
@@ -3107,31 +3339,37 @@
       <c r="L59" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N59" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>54</v>
+      </c>
       <c r="B60" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D60" s="1">
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>100</v>
+        <v>259</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>73</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1">
@@ -3141,8 +3379,524 @@
         <v>2</v>
       </c>
     </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>59</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D65" s="7">
+        <v>3</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66" s="7">
+        <v>2</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" s="7">
+        <v>2</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>62</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D68" s="7">
+        <v>2</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D69" s="7">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1">
+        <v>2</v>
+      </c>
+      <c r="L69" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D70" s="7">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" s="7">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D72" s="7">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D73" s="7">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D74" s="7">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D75" s="7">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1">
+        <v>2</v>
+      </c>
+      <c r="L75" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D76" s="7">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:L54"/>
+  <autoFilter ref="A2:N60"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Poselenci/SvoistvaCard.xlsx
+++ b/Poselenci/SvoistvaCard.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="319">
   <si>
     <t>Название карты</t>
   </si>
@@ -928,6 +928,54 @@
   </si>
   <si>
     <t>(-Р-Р=О+О</t>
+  </si>
+  <si>
+    <t>Карта атаки</t>
+  </si>
+  <si>
+    <t>Деревом атака</t>
+  </si>
+  <si>
+    <t>AttackDerevo</t>
+  </si>
+  <si>
+    <t>Цена атаки</t>
+  </si>
+  <si>
+    <t>Атака золотом</t>
+  </si>
+  <si>
+    <t>AttackGold</t>
+  </si>
+  <si>
+    <t>AttackCard</t>
+  </si>
+  <si>
+    <t>Атака картой</t>
+  </si>
+  <si>
+    <t>Атака ПО</t>
+  </si>
+  <si>
+    <t>AttackPo</t>
+  </si>
+  <si>
+    <t>AttackKamen</t>
+  </si>
+  <si>
+    <t>AttackEmploe</t>
+  </si>
+  <si>
+    <t>AttackEda</t>
+  </si>
+  <si>
+    <t>Атака Камень</t>
+  </si>
+  <si>
+    <t>Атака рабочий</t>
+  </si>
+  <si>
+    <t>Атака еда</t>
   </si>
 </sst>
 </file>
@@ -1313,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N76"/>
+  <dimension ref="A2:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3893,6 +3941,123 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D83" s="1">
+        <v>3</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Poselenci/SvoistvaCard.xlsx
+++ b/Poselenci/SvoistvaCard.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="320">
   <si>
     <t>Название карты</t>
   </si>
@@ -976,6 +976,9 @@
   </si>
   <si>
     <t>Атака еда</t>
+  </si>
+  <si>
+    <t>KosmoImpDremuchiyLes</t>
   </si>
 </sst>
 </file>
@@ -1361,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N87"/>
+  <dimension ref="A2:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3962,7 +3965,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>304</v>
       </c>
@@ -3976,7 +3979,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
         <v>307</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>310</v>
       </c>
@@ -4004,7 +4007,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
         <v>311</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
         <v>316</v>
       </c>
@@ -4032,7 +4035,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
         <v>317</v>
       </c>
@@ -4046,7 +4049,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
         <v>318</v>
       </c>
@@ -4058,6 +4061,43 @@
       </c>
       <c r="E87" s="1" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>53</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D89" s="1">
+        <v>3</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1">
+        <v>2</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
